--- a/Mifos Automation Excels/Client/391-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/391-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>makerepayment</t>
   </si>
@@ -110,19 +110,17 @@
   </si>
   <si>
     <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>Heading</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -136,6 +134,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,11 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -189,22 +197,25 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -545,14 +556,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,7 +675,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P14"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -672,77 +683,87 @@
     <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="7">
         <v>42005</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="4">
         <v>10000</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5">
         <v>0</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -757,7 +778,7 @@
       <c r="D3" s="7">
         <v>42019</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="5">
         <v>841.69</v>
       </c>
@@ -1269,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1288,11 +1309,11 @@
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1313,73 +1334,71 @@
       <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>2622</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="12">
         <v>42019</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="E2" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="11">
         <v>841.69</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>46.03</v>
       </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
         <v>0</v>
       </c>
       <c r="J2" s="13">
         <v>9158.31</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2621</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="12">
         <v>42005</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="14">
         <v>10000</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
         <v>0</v>
       </c>
       <c r="J3" s="14">

--- a/Mifos Automation Excels/Client/391-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/391-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -227,6 +232,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -274,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +315,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,10 +714,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -684,11 +726,12 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -728,17 +771,18 @@
       <c r="M1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="7">
@@ -764,8 +808,9 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -803,14 +848,15 @@
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -846,14 +892,15 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -889,14 +936,15 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -932,14 +980,15 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -975,14 +1024,15 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1018,14 +1068,15 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1061,14 +1112,15 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1104,14 +1156,15 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1147,14 +1200,15 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1190,14 +1244,15 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1233,14 +1288,15 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1276,10 +1332,11 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>819.44</v>
       </c>
     </row>
@@ -1292,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/391-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/391-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>makerepayment</t>
   </si>
@@ -115,15 +110,12 @@
   </si>
   <si>
     <t>repaymenttransactiondate</t>
-  </si>
-  <si>
-    <t>Heading</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -282,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,26 +307,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,23 +342,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -716,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -725,10 +683,8 @@
     <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
@@ -744,9 +700,7 @@
       <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="E1" s="10"/>
       <c r="F1" s="10" t="s">
         <v>16</v>
       </c>
@@ -768,16 +722,14 @@
       <c r="L1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="10"/>
       <c r="O1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P1" s="10"/>
       <c r="Q1" s="10" t="s">
         <v>7</v>
       </c>
@@ -809,6 +761,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -840,18 +793,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <v>887.72</v>
+        <v>46.03</v>
       </c>
       <c r="L3" s="5">
         <v>887.72</v>
       </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5">
+        <v>841.69</v>
+      </c>
       <c r="O3" s="5">
         <v>0</v>
       </c>
+      <c r="P3" s="5"/>
       <c r="Q3" s="5">
         <v>0</v>
       </c>
@@ -889,13 +843,14 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
       <c r="O4" s="5">
         <v>0</v>
       </c>
+      <c r="P4" s="5"/>
       <c r="Q4" s="5">
         <v>887.72</v>
       </c>
@@ -933,13 +888,14 @@
       <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
       <c r="O5" s="5">
         <v>0</v>
       </c>
+      <c r="P5" s="5"/>
       <c r="Q5" s="5">
         <v>887.72</v>
       </c>
@@ -977,13 +933,14 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
       <c r="O6" s="5">
         <v>0</v>
       </c>
+      <c r="P6" s="5"/>
       <c r="Q6" s="5">
         <v>887.72</v>
       </c>
@@ -1021,13 +978,14 @@
       <c r="L7" s="5">
         <v>0</v>
       </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
       <c r="O7" s="5">
         <v>0</v>
       </c>
+      <c r="P7" s="5"/>
       <c r="Q7" s="5">
         <v>887.72</v>
       </c>
@@ -1065,13 +1023,14 @@
       <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
       <c r="O8" s="5">
         <v>0</v>
       </c>
+      <c r="P8" s="5"/>
       <c r="Q8" s="5">
         <v>887.72</v>
       </c>
@@ -1109,13 +1068,14 @@
       <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
       <c r="O9" s="5">
         <v>0</v>
       </c>
+      <c r="P9" s="5"/>
       <c r="Q9" s="5">
         <v>887.72</v>
       </c>
@@ -1153,13 +1113,14 @@
       <c r="L10" s="5">
         <v>0</v>
       </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
       <c r="O10" s="5">
         <v>0</v>
       </c>
+      <c r="P10" s="5"/>
       <c r="Q10" s="5">
         <v>887.72</v>
       </c>
@@ -1197,13 +1158,14 @@
       <c r="L11" s="5">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
       <c r="O11" s="5">
         <v>0</v>
       </c>
+      <c r="P11" s="5"/>
       <c r="Q11" s="5">
         <v>887.72</v>
       </c>
@@ -1241,13 +1203,14 @@
       <c r="L12" s="5">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
       <c r="O12" s="5">
         <v>0</v>
       </c>
+      <c r="P12" s="5"/>
       <c r="Q12" s="5">
         <v>887.72</v>
       </c>
@@ -1285,13 +1248,14 @@
       <c r="L13" s="5">
         <v>0</v>
       </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
       <c r="O13" s="5">
         <v>0</v>
       </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="5">
         <v>887.72</v>
       </c>
@@ -1329,13 +1293,14 @@
       <c r="L14" s="5">
         <v>0</v>
       </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
       <c r="O14" s="5">
         <v>0</v>
       </c>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5">
         <v>819.44</v>
       </c>
